--- a/data/trans_orig/IP3103-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP3103-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA989ABC-6895-4B88-AA20-58C45F4CF03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F39C274-1304-42D0-937B-9D4E5AFFD127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ECA4FF50-D584-47ED-969A-33A8A9F55873}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2D16D04C-8162-4515-9E36-9BB5E23EF24F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="515">
   <si>
     <t>Menores según la frecuencia de tomar pescado, carne en 2007 (Tasa respuesta: 93,39%)</t>
   </si>
@@ -121,1435 +121,1468 @@
     <t>17,57%</t>
   </si>
   <si>
-    <t>11,58%</t>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar pescado, carne en 2012 (Tasa respuesta: 91,71%)</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
   </si>
   <si>
     <t>25,65%</t>
   </si>
   <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar pescado, carne en 2016 (Tasa respuesta: 92,9%)</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
   </si>
   <si>
     <t>10,3%</t>
   </si>
   <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
   </si>
   <si>
     <t>36,45%</t>
   </si>
   <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar pescado, carne en 2012 (Tasa respuesta: 91,71%)</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar pescado, carne en 2015 (Tasa respuesta: 92,9%)</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
     <t>34,31%</t>
   </si>
   <si>
-    <t>38,55%</t>
+    <t>38,52%</t>
   </si>
   <si>
     <t>27,57%</t>
   </si>
   <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
   </si>
   <si>
     <t>26,6%</t>
   </si>
   <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
   </si>
   <si>
     <t>27,1%</t>
   </si>
   <si>
-    <t>28,97%</t>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
   </si>
   <si>
     <t>25,85%</t>
   </si>
   <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
   </si>
   <si>
     <t>24,4%</t>
   </si>
   <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
   </si>
   <si>
     <t>25,15%</t>
   </si>
   <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
   </si>
 </sst>
 </file>
@@ -1961,7 +1994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1393149D-4CD7-4A71-9A17-135CE0A453F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26072986-6363-47E9-AD53-FDE1BB8454A6}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2845,10 +2878,10 @@
         <v>88</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H19" s="7">
         <v>230</v>
@@ -2857,13 +2890,13 @@
         <v>154586</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M19" s="7">
         <v>490</v>
@@ -2872,13 +2905,13 @@
         <v>327285</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,13 +2926,13 @@
         <v>20227</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H20" s="7">
         <v>32</v>
@@ -2908,13 +2941,13 @@
         <v>20335</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>62</v>
@@ -2923,13 +2956,13 @@
         <v>40561</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2985,7 +3018,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2997,13 +3030,13 @@
         <v>1471</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -3012,13 +3045,13 @@
         <v>448</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -3027,13 +3060,13 @@
         <v>1919</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,13 +3081,13 @@
         <v>10462</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H23" s="7">
         <v>26</v>
@@ -3063,13 +3096,13 @@
         <v>19036</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M23" s="7">
         <v>41</v>
@@ -3078,13 +3111,13 @@
         <v>29498</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,13 +3132,13 @@
         <v>73779</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H24" s="7">
         <v>111</v>
@@ -3114,13 +3147,13 @@
         <v>75444</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M24" s="7">
         <v>222</v>
@@ -3129,13 +3162,13 @@
         <v>149223</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,13 +3183,13 @@
         <v>52527</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H25" s="7">
         <v>88</v>
@@ -3165,13 +3198,13 @@
         <v>60706</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M25" s="7">
         <v>166</v>
@@ -3180,13 +3213,13 @@
         <v>113233</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,13 +3234,13 @@
         <v>3932</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -3219,7 +3252,7 @@
         <v>58</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>143</v>
@@ -3320,13 +3353,13 @@
         <v>2315</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M28" s="7">
         <v>12</v>
@@ -3335,13 +3368,13 @@
         <v>7716</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,13 +3389,13 @@
         <v>60773</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H29" s="7">
         <v>95</v>
@@ -3371,13 +3404,13 @@
         <v>64168</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M29" s="7">
         <v>185</v>
@@ -3386,13 +3419,13 @@
         <v>124941</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,13 +3440,13 @@
         <v>332781</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H30" s="7">
         <v>453</v>
@@ -3422,13 +3455,13 @@
         <v>302411</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M30" s="7">
         <v>956</v>
@@ -3437,13 +3470,13 @@
         <v>635192</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,13 +3491,13 @@
         <v>247232</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H31" s="7">
         <v>359</v>
@@ -3473,13 +3506,13 @@
         <v>242972</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M31" s="7">
         <v>730</v>
@@ -3488,13 +3521,13 @@
         <v>490203</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,13 +3542,13 @@
         <v>28322</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H32" s="7">
         <v>40</v>
@@ -3524,13 +3557,13 @@
         <v>25494</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M32" s="7">
         <v>82</v>
@@ -3539,13 +3572,13 @@
         <v>53815</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,7 +3634,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3621,7 +3654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57B1459-AEC7-40FB-A134-F89ACFFEFCCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9DDAEF-C284-4A36-9E24-FA54340EEA6B}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3638,7 +3671,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4047,7 +4080,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4056,13 +4089,13 @@
         <v>1448</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -4071,7 +4104,7 @@
         <v>1448</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
@@ -4098,7 +4131,7 @@
         <v>198</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="H11" s="7">
         <v>33</v>
@@ -4107,13 +4140,13 @@
         <v>23773</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M11" s="7">
         <v>66</v>
@@ -4122,13 +4155,13 @@
         <v>47643</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4176,13 @@
         <v>40795</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H12" s="7">
         <v>57</v>
@@ -4158,13 +4191,13 @@
         <v>38794</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M12" s="7">
         <v>114</v>
@@ -4173,13 +4206,13 @@
         <v>79589</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,13 +4227,13 @@
         <v>12561</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -4209,13 +4242,13 @@
         <v>16684</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -4224,13 +4257,13 @@
         <v>29245</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,13 +4278,13 @@
         <v>5399</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -4260,13 +4293,13 @@
         <v>6791</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -4275,13 +4308,13 @@
         <v>12190</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,13 +4382,13 @@
         <v>1940</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -4370,7 +4403,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -4379,13 +4412,13 @@
         <v>3205</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>148</v>
+        <v>236</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>237</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4400,13 +4433,13 @@
         <v>64806</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>241</v>
       </c>
       <c r="H17" s="7">
         <v>84</v>
@@ -4415,13 +4448,13 @@
         <v>58285</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M17" s="7">
         <v>174</v>
@@ -4430,13 +4463,13 @@
         <v>123090</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4451,13 +4484,13 @@
         <v>202547</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>178</v>
+        <v>249</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H18" s="7">
         <v>271</v>
@@ -4466,13 +4499,13 @@
         <v>190450</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M18" s="7">
         <v>562</v>
@@ -4481,13 +4514,13 @@
         <v>392997</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4502,13 +4535,13 @@
         <v>133199</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H19" s="7">
         <v>178</v>
@@ -4517,13 +4550,13 @@
         <v>121506</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M19" s="7">
         <v>372</v>
@@ -4532,13 +4565,13 @@
         <v>254705</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4553,13 +4586,13 @@
         <v>49098</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="H20" s="7">
         <v>62</v>
@@ -4568,13 +4601,13 @@
         <v>40928</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>133</v>
@@ -4583,13 +4616,13 @@
         <v>90026</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,7 +4678,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4657,13 +4690,13 @@
         <v>1467</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4678,7 +4711,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -4693,7 +4726,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4708,13 +4741,13 @@
         <v>18241</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>23</v>
@@ -4723,13 +4756,13 @@
         <v>16712</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>47</v>
@@ -4738,13 +4771,13 @@
         <v>34953</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,13 +4792,13 @@
         <v>65704</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="H24" s="7">
         <v>105</v>
@@ -4774,13 +4807,13 @@
         <v>73441</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="M24" s="7">
         <v>198</v>
@@ -4789,13 +4822,13 @@
         <v>139145</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,13 +4843,13 @@
         <v>50814</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H25" s="7">
         <v>60</v>
@@ -4825,28 +4858,28 @@
         <v>42563</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M25" s="7">
         <v>133</v>
       </c>
       <c r="N25" s="7">
-        <v>93377</v>
+        <v>93376</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4894,13 @@
         <v>18762</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="H26" s="7">
         <v>28</v>
@@ -4876,13 +4909,13 @@
         <v>19929</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M26" s="7">
         <v>55</v>
@@ -4891,13 +4924,13 @@
         <v>38691</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>266</v>
+        <v>311</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,7 +4972,7 @@
         <v>435</v>
       </c>
       <c r="N27" s="7">
-        <v>307634</v>
+        <v>307633</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>20</v>
@@ -4965,13 +4998,13 @@
         <v>3407</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>309</v>
+        <v>107</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -4980,13 +5013,13 @@
         <v>2712</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>151</v>
+        <v>317</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>106</v>
+        <v>318</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -4995,13 +5028,13 @@
         <v>6120</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>313</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,13 +5049,13 @@
         <v>106917</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="H29" s="7">
         <v>140</v>
@@ -5031,13 +5064,13 @@
         <v>98770</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="M29" s="7">
         <v>287</v>
@@ -5046,13 +5079,13 @@
         <v>205687</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,13 +5100,13 @@
         <v>309046</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="H30" s="7">
         <v>433</v>
@@ -5082,13 +5115,13 @@
         <v>302685</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="M30" s="7">
         <v>874</v>
@@ -5097,13 +5130,13 @@
         <v>611731</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,13 +5151,13 @@
         <v>196574</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="H31" s="7">
         <v>263</v>
@@ -5133,13 +5166,13 @@
         <v>180753</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="M31" s="7">
         <v>548</v>
@@ -5148,13 +5181,13 @@
         <v>377327</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5202,13 @@
         <v>73900</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="H32" s="7">
         <v>100</v>
@@ -5184,13 +5217,13 @@
         <v>67649</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
       <c r="M32" s="7">
         <v>207</v>
@@ -5199,13 +5232,13 @@
         <v>141549</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>299</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5261,7 +5294,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -5281,7 +5314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF80BA7E-CD2C-4FD3-ACF1-39E84936B2F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBF276A-E00A-4974-9D83-0B8BEECCAFB4}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5298,7 +5331,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5683,7 +5716,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5698,7 +5731,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5713,7 +5746,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5728,13 +5761,13 @@
         <v>12011</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -5743,13 +5776,13 @@
         <v>5569</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="M11" s="7">
         <v>24</v>
@@ -5758,13 +5791,13 @@
         <v>17580</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,13 +5812,13 @@
         <v>13769</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="H12" s="7">
         <v>26</v>
@@ -5794,13 +5827,13 @@
         <v>17104</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="M12" s="7">
         <v>46</v>
@@ -5809,13 +5842,13 @@
         <v>30873</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,13 +5863,13 @@
         <v>12842</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -5845,13 +5878,13 @@
         <v>18018</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -5860,13 +5893,13 @@
         <v>30860</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5881,13 +5914,13 @@
         <v>28672</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -5896,13 +5929,13 @@
         <v>15464</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="M14" s="7">
         <v>68</v>
@@ -5911,13 +5944,13 @@
         <v>44135</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5988,10 +6021,10 @@
         <v>25</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>387</v>
+        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -6000,13 +6033,13 @@
         <v>3487</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>389</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -6015,13 +6048,13 @@
         <v>7006</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6036,13 +6069,13 @@
         <v>43322</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="H17" s="7">
         <v>72</v>
@@ -6051,13 +6084,13 @@
         <v>51795</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="M17" s="7">
         <v>133</v>
@@ -6066,13 +6099,13 @@
         <v>95117</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>342</v>
+        <v>407</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6087,13 +6120,13 @@
         <v>169132</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="H18" s="7">
         <v>236</v>
@@ -6102,13 +6135,13 @@
         <v>158330</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="M18" s="7">
         <v>472</v>
@@ -6117,13 +6150,13 @@
         <v>327462</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>410</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6138,13 +6171,13 @@
         <v>130214</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="H19" s="7">
         <v>174</v>
@@ -6153,13 +6186,13 @@
         <v>112599</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="M19" s="7">
         <v>359</v>
@@ -6168,13 +6201,13 @@
         <v>242813</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6189,13 +6222,13 @@
         <v>114412</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="H20" s="7">
         <v>176</v>
@@ -6204,13 +6237,13 @@
         <v>115094</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="M20" s="7">
         <v>342</v>
@@ -6219,13 +6252,13 @@
         <v>229505</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6281,7 +6314,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6299,7 +6332,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6314,7 +6347,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6329,7 +6362,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6344,13 +6377,13 @@
         <v>16385</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="H23" s="7">
         <v>23</v>
@@ -6359,13 +6392,13 @@
         <v>16667</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="M23" s="7">
         <v>46</v>
@@ -6374,13 +6407,13 @@
         <v>33053</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6395,13 +6428,13 @@
         <v>66238</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="H24" s="7">
         <v>101</v>
@@ -6410,13 +6443,13 @@
         <v>67912</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="M24" s="7">
         <v>198</v>
@@ -6425,13 +6458,13 @@
         <v>134149</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6446,13 +6479,13 @@
         <v>48942</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>419</v>
+        <v>455</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="H25" s="7">
         <v>67</v>
@@ -6461,13 +6494,13 @@
         <v>43566</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="M25" s="7">
         <v>136</v>
@@ -6476,13 +6509,13 @@
         <v>92509</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6497,13 +6530,13 @@
         <v>36944</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="H26" s="7">
         <v>44</v>
@@ -6512,13 +6545,13 @@
         <v>29215</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="M26" s="7">
         <v>98</v>
@@ -6527,13 +6560,13 @@
         <v>66159</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6601,13 +6634,13 @@
         <v>3520</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -6616,13 +6649,13 @@
         <v>3487</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>235</v>
+        <v>59</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -6631,13 +6664,13 @@
         <v>7006</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6652,13 +6685,13 @@
         <v>71718</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>72</v>
+        <v>479</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="H29" s="7">
         <v>103</v>
@@ -6667,13 +6700,13 @@
         <v>74031</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>362</v>
+        <v>484</v>
       </c>
       <c r="M29" s="7">
         <v>203</v>
@@ -6682,13 +6715,13 @@
         <v>145750</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,13 +6736,13 @@
         <v>249139</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="H30" s="7">
         <v>363</v>
@@ -6718,13 +6751,13 @@
         <v>243346</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="M30" s="7">
         <v>716</v>
@@ -6733,13 +6766,13 @@
         <v>492484</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>94</v>
+        <v>494</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,13 +6787,13 @@
         <v>191998</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="H31" s="7">
         <v>266</v>
@@ -6769,13 +6802,13 @@
         <v>174184</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="M31" s="7">
         <v>538</v>
@@ -6784,13 +6817,13 @@
         <v>366182</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>336</v>
+        <v>504</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6805,13 +6838,13 @@
         <v>180027</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="H32" s="7">
         <v>245</v>
@@ -6820,13 +6853,13 @@
         <v>159772</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="M32" s="7">
         <v>508</v>
@@ -6835,13 +6868,13 @@
         <v>339799</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6897,7 +6930,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
